--- a/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Tables41-47.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/Tables41-47.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb80/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F4187D-B69F-9D41-9C56-5A346DA47DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A198C759-92DE-E045-909A-F9715D722709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26060" yWindow="460" windowWidth="22740" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$411</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="126">
   <si>
     <t>Sole</t>
   </si>
@@ -220,9 +223,6 @@
     <t>Mullet</t>
   </si>
   <si>
-    <t>All other porta</t>
-  </si>
-  <si>
     <t>port</t>
   </si>
   <si>
@@ -322,9 +322,6 @@
     <t>Eastern oyster</t>
   </si>
   <si>
-    <t>All others</t>
-  </si>
-  <si>
     <t>Point Reyes</t>
   </si>
   <si>
@@ -398,6 +395,12 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
   <dimension ref="A1:E411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -777,27 +780,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>3006388</v>
@@ -808,10 +814,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -825,10 +831,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -842,10 +848,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -859,10 +865,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -876,10 +882,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -893,10 +899,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -910,10 +916,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -927,10 +933,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -944,10 +950,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -961,10 +967,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -978,10 +984,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -994,10 +1000,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4">
         <f>SUM(D3:D12)-D13</f>
@@ -1010,10 +1020,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2</v>
@@ -1027,10 +1037,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1044,10 +1054,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -1061,10 +1071,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1078,10 +1088,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1095,10 +1105,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1112,10 +1122,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
@@ -1129,10 +1139,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1146,10 +1156,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1162,10 +1172,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4">
         <f>SUM(D15:D22)-D23</f>
@@ -1178,10 +1192,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
@@ -1195,10 +1209,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1212,10 +1226,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1229,10 +1243,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1246,10 +1260,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -1263,10 +1277,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1280,10 +1294,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1297,10 +1311,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1313,10 +1327,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="4">
         <f>SUM(D25:D31)-D32</f>
@@ -1329,10 +1347,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1346,10 +1364,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -1363,10 +1381,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1380,10 +1398,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1397,10 +1415,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1414,10 +1432,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1431,10 +1449,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -1448,10 +1466,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1465,10 +1483,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1482,10 +1500,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1498,10 +1516,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4">
         <f>SUM(D34:D42)-D43</f>
@@ -1514,10 +1536,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1531,10 +1553,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1548,10 +1570,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -1565,10 +1587,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
@@ -1581,10 +1603,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" s="4">
         <f>SUM(D45:D47)-D48</f>
@@ -1597,10 +1623,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>2</v>
@@ -1614,10 +1640,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -1631,10 +1657,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -1648,10 +1674,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -1664,10 +1690,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C54" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" s="4">
         <f>SUM(D50:D52)-D53</f>
@@ -1680,10 +1710,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -1697,10 +1727,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -1714,10 +1744,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1731,10 +1761,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1748,10 +1778,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -1764,10 +1794,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C60" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4">
         <f>SUM(D55:D58)-D59</f>
@@ -1780,13 +1814,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1">
         <v>3345</v>
@@ -1797,7 +1831,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>38</v>
@@ -1813,18 +1847,31 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1">
         <v>366504</v>
@@ -1835,10 +1882,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
@@ -1852,10 +1899,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C66" t="s">
         <v>12</v>
@@ -1869,10 +1916,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -1886,10 +1933,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -1903,10 +1950,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -1920,10 +1967,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -1936,10 +1983,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C71" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D65:D69)-D70</f>
@@ -1952,10 +2003,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -1969,10 +2020,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -1986,10 +2037,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -2003,10 +2054,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -2020,10 +2071,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2037,10 +2088,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -2053,10 +2104,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C78" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D78" s="4">
         <f>SUM(D72:D76)-D77</f>
@@ -2069,10 +2124,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
@@ -2086,10 +2141,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -2103,10 +2158,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -2120,10 +2175,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2137,10 +2192,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -2153,10 +2208,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C84" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D84" s="4">
         <f>SUM(D79:D82)-D83</f>
@@ -2169,10 +2228,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>2</v>
@@ -2186,10 +2245,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -2203,10 +2262,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2220,10 +2279,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -2236,10 +2295,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C89" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" s="4">
         <f>SUM(D85:D87)-D88</f>
@@ -2252,10 +2315,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
@@ -2269,10 +2332,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -2286,10 +2349,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -2302,10 +2365,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C93" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D93" s="4">
         <f>SUM(D90:D91)-D92</f>
@@ -2318,10 +2385,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -2335,10 +2402,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -2352,10 +2419,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -2368,10 +2435,14 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C97" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D97" s="4">
         <f>SUM(D94:D95)-D96</f>
@@ -2384,7 +2455,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>38</v>
@@ -2401,13 +2472,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="D99" s="1">
         <v>2315</v>
@@ -2418,7 +2489,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>38</v>
@@ -2434,8 +2505,14 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C101" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D101" s="4">
         <f>SUM(D98:D99)-D100</f>
@@ -2448,10 +2525,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1">
         <v>2922598</v>
@@ -2462,7 +2542,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
         <v>17</v>
@@ -2479,7 +2559,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104" t="s">
         <v>17</v>
@@ -2496,7 +2576,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B105" t="s">
         <v>17</v>
@@ -2513,7 +2593,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s">
         <v>17</v>
@@ -2530,7 +2610,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B107" t="s">
         <v>17</v>
@@ -2547,7 +2627,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
         <v>17</v>
@@ -2564,7 +2644,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
@@ -2581,7 +2661,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
@@ -2598,7 +2678,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -2615,7 +2695,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
@@ -2632,7 +2712,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
@@ -2649,7 +2729,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
         <v>17</v>
@@ -2666,7 +2746,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B115" t="s">
         <v>17</v>
@@ -2683,7 +2763,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
@@ -2700,7 +2780,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
@@ -2717,7 +2797,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B118" t="s">
         <v>17</v>
@@ -2734,7 +2814,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
@@ -2750,9 +2830,14 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
       <c r="C120" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D120" s="4">
         <f>SUM(D103:D118)-D119</f>
@@ -2765,10 +2850,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>2</v>
@@ -2782,10 +2867,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
@@ -2799,10 +2884,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -2816,10 +2901,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
@@ -2833,10 +2918,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
@@ -2850,10 +2935,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2867,10 +2952,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
       </c>
       <c r="D127" s="1">
         <v>2851</v>
@@ -2881,10 +2969,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -2898,10 +2986,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2915,10 +3003,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
         <v>9</v>
@@ -2931,10 +3019,14 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C131" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D131" s="4">
         <f>SUM(D121:D129)-D130</f>
@@ -2947,7 +3039,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B132" t="s">
         <v>25</v>
@@ -2964,7 +3056,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
@@ -2981,7 +3073,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -2998,7 +3090,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
@@ -3015,7 +3107,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
@@ -3032,7 +3124,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
@@ -3049,7 +3141,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
@@ -3066,7 +3158,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
@@ -3083,7 +3175,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
@@ -3100,7 +3192,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
@@ -3116,9 +3208,14 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" s="2"/>
+      <c r="A142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
       <c r="C142" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D142" s="4">
         <f>SUM(D132:D140)-D141</f>
@@ -3131,10 +3228,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
@@ -3148,10 +3245,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
@@ -3165,10 +3262,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -3182,10 +3279,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -3199,10 +3296,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C147" t="s">
         <v>9</v>
@@ -3215,10 +3312,14 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
+      <c r="A148" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C148" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D148" s="4">
         <f>SUM(D143:D146)-D147</f>
@@ -3231,10 +3332,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>2</v>
@@ -3248,10 +3349,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
@@ -3265,10 +3366,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -3282,10 +3383,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3299,10 +3400,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -3316,10 +3417,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C154" t="s">
         <v>9</v>
@@ -3332,10 +3433,14 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
+      <c r="A155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C155" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D155" s="4">
         <f>SUM(D149:D153)-D154</f>
@@ -3348,7 +3453,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B156" t="s">
         <v>26</v>
@@ -3365,7 +3470,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B157" t="s">
         <v>26</v>
@@ -3382,7 +3487,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B158" t="s">
         <v>26</v>
@@ -3399,7 +3504,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B159" t="s">
         <v>26</v>
@@ -3416,7 +3521,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B160" t="s">
         <v>26</v>
@@ -3433,7 +3538,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B161" t="s">
         <v>26</v>
@@ -3450,7 +3555,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B162" t="s">
         <v>26</v>
@@ -3466,9 +3571,14 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A163" s="2"/>
+      <c r="A163" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163" t="s">
+        <v>26</v>
+      </c>
       <c r="C163" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D163" s="4">
         <f>SUM(D156:D161)-D162</f>
@@ -3481,7 +3591,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B164" t="s">
         <v>27</v>
@@ -3498,7 +3608,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B165" t="s">
         <v>27</v>
@@ -3515,7 +3625,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B166" t="s">
         <v>27</v>
@@ -3531,8 +3641,14 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
       <c r="C167" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D167" s="4">
         <f>SUM(D164:D165)-D166</f>
@@ -3545,10 +3661,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>28</v>
@@ -3562,10 +3678,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C169" t="s">
         <v>9</v>
@@ -3578,23 +3694,31 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
+      <c r="A170" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="C170" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D171" s="1">
         <v>4654</v>
@@ -3605,10 +3729,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -3622,10 +3746,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -3638,10 +3762,14 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C174" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D174" s="4">
         <f>SUM(D171:D172)-D173</f>
@@ -3654,10 +3782,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>19</v>
@@ -3671,10 +3799,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
@@ -3687,23 +3815,31 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C177" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D177" s="4">
+        <v>0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D178" s="1">
         <v>4240</v>
@@ -3714,7 +3850,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>38</v>
@@ -3730,18 +3866,31 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C180" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D180" s="4">
+        <v>0</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B181" t="s">
+        <v>119</v>
       </c>
       <c r="C181" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D181" s="1">
         <v>6061869</v>
@@ -3752,10 +3901,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>16</v>
@@ -3769,10 +3918,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
@@ -3786,10 +3935,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -3803,10 +3952,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C185" t="s">
         <v>30</v>
@@ -3820,10 +3969,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -3837,10 +3986,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C187" t="s">
         <v>2</v>
@@ -3854,10 +4003,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C188" t="s">
         <v>31</v>
@@ -3871,10 +4020,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C189" t="s">
         <v>32</v>
@@ -3888,10 +4037,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C190" t="s">
         <v>37</v>
@@ -3905,10 +4054,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C191" t="s">
         <v>50</v>
@@ -3922,10 +4071,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -3939,10 +4088,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C193" t="s">
         <v>33</v>
@@ -3956,10 +4105,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -3973,10 +4122,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
@@ -3990,10 +4139,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -4006,10 +4155,14 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C197" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D197" s="4">
         <f>SUM(D182:D195)-D196</f>
@@ -4022,10 +4175,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
@@ -4039,10 +4192,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C199" t="s">
         <v>16</v>
@@ -4056,10 +4209,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" t="s">
         <v>3</v>
@@ -4073,10 +4226,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C201" t="s">
         <v>34</v>
@@ -4090,10 +4243,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C202" t="s">
         <v>2</v>
@@ -4107,10 +4260,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C203" t="s">
         <v>30</v>
@@ -4124,10 +4277,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C204" t="s">
         <v>35</v>
@@ -4141,10 +4294,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -4157,10 +4310,14 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C206" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D206" s="4">
         <f>SUM(D198:D204)-D205</f>
@@ -4173,10 +4330,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>16</v>
@@ -4190,10 +4347,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C208" t="s">
         <v>2</v>
@@ -4207,10 +4364,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C209" t="s">
         <v>10</v>
@@ -4224,10 +4381,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -4241,10 +4398,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -4258,10 +4415,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C212" t="s">
         <v>36</v>
@@ -4275,10 +4432,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
@@ -4292,10 +4449,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C214" t="s">
         <v>11</v>
@@ -4309,10 +4466,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C215" t="s">
         <v>8</v>
@@ -4326,10 +4483,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
@@ -4342,10 +4499,14 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="C217" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D217" s="4">
         <f>SUM(D207:D215)-D216</f>
@@ -4358,13 +4519,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
-      <c r="C218" t="s">
-        <v>8</v>
+      <c r="C218" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D218" s="1">
         <v>1144</v>
@@ -4375,7 +4536,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
@@ -4391,18 +4552,31 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B220" t="s">
+        <v>38</v>
+      </c>
       <c r="C220" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D220" s="4">
+        <v>0</v>
+      </c>
+      <c r="E220" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B221" t="s">
+        <v>120</v>
       </c>
       <c r="C221" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D221" s="1">
         <v>1076814</v>
@@ -4413,10 +4587,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>16</v>
@@ -4430,10 +4604,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C223" t="s">
         <v>30</v>
@@ -4447,10 +4621,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C224" t="s">
         <v>34</v>
@@ -4464,10 +4638,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C225" t="s">
         <v>3</v>
@@ -4481,10 +4655,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C226" t="s">
         <v>31</v>
@@ -4498,10 +4672,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C227" t="s">
         <v>37</v>
@@ -4515,10 +4689,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
@@ -4532,10 +4706,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -4548,10 +4722,14 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C230" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D230" s="4">
         <f>SUM(D222:D228)-D229</f>
@@ -4564,10 +4742,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>37</v>
@@ -4581,10 +4759,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C232" t="s">
         <v>39</v>
@@ -4598,10 +4776,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C233" t="s">
         <v>40</v>
@@ -4615,10 +4793,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C234" t="s">
         <v>3</v>
@@ -4632,10 +4810,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C235" t="s">
         <v>34</v>
@@ -4649,10 +4827,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C236" t="s">
         <v>16</v>
@@ -4666,10 +4844,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
@@ -4683,10 +4861,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C238" t="s">
         <v>41</v>
@@ -4700,10 +4878,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -4717,10 +4895,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
@@ -4733,10 +4911,14 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C241" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D241" s="4">
         <f>SUM(D231:D239)-D240</f>
@@ -4749,10 +4931,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>39</v>
@@ -4766,10 +4948,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C243" t="s">
         <v>10</v>
@@ -4783,10 +4965,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C244" t="s">
         <v>16</v>
@@ -4800,10 +4982,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -4817,10 +4999,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C246" t="s">
         <v>4</v>
@@ -4834,10 +5016,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -4851,10 +5033,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
@@ -4867,10 +5049,14 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C249" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D249" s="4">
         <f>SUM(D242:D247)-D248</f>
@@ -4883,7 +5069,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B250" t="s">
         <v>42</v>
@@ -4900,7 +5086,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B251" t="s">
         <v>42</v>
@@ -4917,7 +5103,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B252" t="s">
         <v>42</v>
@@ -4934,7 +5120,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B253" t="s">
         <v>42</v>
@@ -4951,7 +5137,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B254" t="s">
         <v>42</v>
@@ -4968,7 +5154,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B255" t="s">
         <v>42</v>
@@ -4985,7 +5171,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B256" t="s">
         <v>42</v>
@@ -5002,7 +5188,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B257" t="s">
         <v>42</v>
@@ -5019,7 +5205,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B258" t="s">
         <v>42</v>
@@ -5035,9 +5221,14 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A259" s="2"/>
+      <c r="A259" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
+      </c>
       <c r="C259" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D259" s="4">
         <f>SUM(D250:D257)-D258</f>
@@ -5050,13 +5241,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D260" s="1">
         <v>14810</v>
@@ -5067,7 +5258,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>38</v>
@@ -5083,18 +5274,31 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A262" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C262" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D262" s="4">
+        <v>0</v>
+      </c>
+      <c r="E262" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="B263" t="s">
+        <v>121</v>
       </c>
       <c r="C263" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="D263" s="1">
         <v>26824770</v>
@@ -5105,10 +5309,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>18</v>
@@ -5122,10 +5326,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
@@ -5139,10 +5343,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C266" t="s">
         <v>43</v>
@@ -5156,10 +5360,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C267" t="s">
         <v>10</v>
@@ -5173,10 +5377,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C268" t="s">
         <v>30</v>
@@ -5190,10 +5394,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C269" t="s">
         <v>44</v>
@@ -5207,10 +5411,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C270" t="s">
         <v>45</v>
@@ -5224,10 +5428,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C271" t="s">
         <v>46</v>
@@ -5241,10 +5445,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C272" t="s">
         <v>47</v>
@@ -5258,10 +5462,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C273" t="s">
         <v>31</v>
@@ -5275,10 +5479,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -5291,10 +5495,14 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
+      <c r="A275" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C275" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D275" s="4">
         <f>SUM(D264:D273)-D274</f>
@@ -5307,10 +5515,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>18</v>
@@ -5324,10 +5532,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C277" t="s">
         <v>16</v>
@@ -5341,10 +5549,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C278" t="s">
         <v>43</v>
@@ -5358,10 +5566,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C279" t="s">
         <v>44</v>
@@ -5375,10 +5583,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C280" t="s">
         <v>30</v>
@@ -5392,10 +5600,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C281" t="s">
         <v>48</v>
@@ -5409,10 +5617,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C282" t="s">
         <v>46</v>
@@ -5426,10 +5634,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C283" t="s">
         <v>49</v>
@@ -5443,10 +5651,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C284" t="s">
         <v>47</v>
@@ -5460,10 +5668,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C285" t="s">
         <v>40</v>
@@ -5477,10 +5685,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C286" t="s">
         <v>8</v>
@@ -5494,10 +5702,10 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
@@ -5510,10 +5718,14 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="A288" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C288" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D288" s="4">
         <f>SUM(D276:D286)-D287</f>
@@ -5526,10 +5738,10 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>18</v>
@@ -5543,10 +5755,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C290" t="s">
         <v>16</v>
@@ -5560,10 +5772,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C291" t="s">
         <v>43</v>
@@ -5577,10 +5789,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C292" t="s">
         <v>30</v>
@@ -5594,10 +5806,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C293" t="s">
         <v>44</v>
@@ -5611,10 +5823,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C294" t="s">
         <v>49</v>
@@ -5628,10 +5840,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C295" t="s">
         <v>10</v>
@@ -5645,10 +5857,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C296" t="s">
         <v>50</v>
@@ -5662,10 +5874,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C297" t="s">
         <v>8</v>
@@ -5679,10 +5891,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C298" t="s">
         <v>9</v>
@@ -5695,10 +5907,14 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
+      <c r="A299" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C299" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D299" s="4">
         <f>SUM(D289:D297)-D298</f>
@@ -5711,10 +5927,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>58</v>
@@ -5728,10 +5944,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>34</v>
@@ -5745,10 +5961,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C302" t="s">
         <v>49</v>
@@ -5762,10 +5978,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>40</v>
@@ -5779,10 +5995,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>37</v>
@@ -5796,10 +6012,10 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C305" t="s">
         <v>44</v>
@@ -5813,10 +6029,10 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C306" t="s">
         <v>51</v>
@@ -5830,10 +6046,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C307" t="s">
         <v>4</v>
@@ -5847,10 +6063,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C308" t="s">
         <v>32</v>
@@ -5864,10 +6080,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C309" t="s">
         <v>10</v>
@@ -5881,10 +6097,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C310" t="s">
         <v>3</v>
@@ -5898,10 +6114,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C311" t="s">
         <v>52</v>
@@ -5915,10 +6131,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C312" t="s">
         <v>46</v>
@@ -5932,10 +6148,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C313" t="s">
         <v>41</v>
@@ -5949,10 +6165,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C314" t="s">
         <v>53</v>
@@ -5966,10 +6182,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C315" t="s">
         <v>23</v>
@@ -5983,10 +6199,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C316" t="s">
         <v>30</v>
@@ -6000,10 +6216,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C317" t="s">
         <v>54</v>
@@ -6017,13 +6233,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D318" s="1">
         <v>12272</v>
@@ -6034,10 +6250,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C319" t="s">
         <v>16</v>
@@ -6051,10 +6267,10 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C320" t="s">
         <v>55</v>
@@ -6068,10 +6284,10 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C321" t="s">
         <v>8</v>
@@ -6085,10 +6301,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C322" t="s">
         <v>9</v>
@@ -6101,8 +6317,14 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A323" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C323" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D323" s="4">
         <f>SUM(D300:D321)-D322</f>
@@ -6115,10 +6337,10 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>44</v>
@@ -6132,10 +6354,10 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C325" t="s">
         <v>56</v>
@@ -6149,10 +6371,10 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C326" t="s">
         <v>16</v>
@@ -6166,10 +6388,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C327" t="s">
         <v>32</v>
@@ -6183,10 +6405,10 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C328" t="s">
         <v>40</v>
@@ -6200,10 +6422,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C329" t="s">
         <v>3</v>
@@ -6217,10 +6439,10 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C330" t="s">
         <v>57</v>
@@ -6234,10 +6456,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C331" t="s">
         <v>58</v>
@@ -6251,10 +6473,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C332" t="s">
         <v>37</v>
@@ -6268,10 +6490,10 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C333" t="s">
         <v>30</v>
@@ -6285,10 +6507,10 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C334" t="s">
         <v>34</v>
@@ -6302,10 +6524,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C335" t="s">
         <v>8</v>
@@ -6319,10 +6541,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C336" t="s">
         <v>59</v>
@@ -6335,10 +6557,14 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="A337" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="C337" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D337" s="4">
         <f>SUM(D324:D335)-D336</f>
@@ -6351,10 +6577,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>2</v>
@@ -6368,10 +6594,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C339" t="s">
         <v>40</v>
@@ -6385,10 +6611,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C340" t="s">
         <v>8</v>
@@ -6402,10 +6628,10 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C341" t="s">
         <v>59</v>
@@ -6418,10 +6644,14 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C342" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D342" s="4">
         <f>SUM(D338:D340)-D341</f>
@@ -6434,10 +6664,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>40</v>
@@ -6451,10 +6681,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C344" t="s">
         <v>16</v>
@@ -6468,10 +6698,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C345" t="s">
         <v>37</v>
@@ -6485,10 +6715,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C346" t="s">
         <v>31</v>
@@ -6502,10 +6732,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C347" t="s">
         <v>3</v>
@@ -6519,10 +6749,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C348" t="s">
         <v>58</v>
@@ -6536,10 +6766,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C349" t="s">
         <v>8</v>
@@ -6553,10 +6783,10 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C350" t="s">
         <v>59</v>
@@ -6569,10 +6799,14 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
+      <c r="A351" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C351" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D351" s="4">
         <f>SUM(D343:D349)-D350</f>
@@ -6585,10 +6819,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>4</v>
@@ -6602,10 +6836,10 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C353" t="s">
         <v>40</v>
@@ -6619,10 +6853,10 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C354" t="s">
         <v>23</v>
@@ -6636,10 +6870,10 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C355" t="s">
         <v>32</v>
@@ -6653,10 +6887,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -6670,10 +6904,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C357" t="s">
         <v>59</v>
@@ -6686,10 +6920,14 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
+      <c r="A358" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="C358" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D358" s="4">
         <f>SUM(D352:D356)-D357</f>
@@ -6702,10 +6940,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>32</v>
@@ -6719,10 +6957,10 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C360" t="s">
         <v>41</v>
@@ -6736,10 +6974,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C361" t="s">
         <v>8</v>
@@ -6753,10 +6991,10 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C362" t="s">
         <v>59</v>
@@ -6769,10 +7007,14 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
+      <c r="A363" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C363" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D363" s="4">
         <f>SUM(D359:D361)-D362</f>
@@ -6785,10 +7027,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>32</v>
@@ -6802,10 +7044,10 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C365" t="s">
         <v>59</v>
@@ -6818,20 +7060,28 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
+      <c r="A366" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C366" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D366" s="4"/>
-      <c r="E366" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D366" s="4">
+        <v>0</v>
+      </c>
+      <c r="E366" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>32</v>
@@ -6845,10 +7095,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C368" t="s">
         <v>59</v>
@@ -6861,23 +7111,31 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
+      <c r="A369" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C369" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D369" s="4">
+        <v>0</v>
+      </c>
+      <c r="E369" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D370" s="1">
         <v>6795</v>
@@ -6888,7 +7146,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>38</v>
@@ -6904,18 +7162,31 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A372" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C372" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D372" s="4"/>
-      <c r="E372" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D372" s="4">
+        <v>0</v>
+      </c>
+      <c r="E372" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B373" t="s">
+        <v>60</v>
       </c>
       <c r="C373" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D373" s="1">
         <v>32967858</v>
@@ -6926,7 +7197,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B374" t="s">
         <v>61</v>
@@ -6943,7 +7214,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B375" t="s">
         <v>61</v>
@@ -6960,7 +7231,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B376" t="s">
         <v>61</v>
@@ -6977,7 +7248,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B377" t="s">
         <v>61</v>
@@ -6994,7 +7265,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B378" t="s">
         <v>61</v>
@@ -7011,7 +7282,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B379" t="s">
         <v>61</v>
@@ -7028,7 +7299,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B380" t="s">
         <v>61</v>
@@ -7045,7 +7316,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B381" t="s">
         <v>61</v>
@@ -7062,7 +7333,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B382" t="s">
         <v>61</v>
@@ -7079,7 +7350,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B383" t="s">
         <v>61</v>
@@ -7096,7 +7367,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B384" t="s">
         <v>61</v>
@@ -7113,7 +7384,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B385" t="s">
         <v>61</v>
@@ -7130,7 +7401,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B386" t="s">
         <v>61</v>
@@ -7147,7 +7418,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B387" t="s">
         <v>61</v>
@@ -7164,7 +7435,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B388" t="s">
         <v>61</v>
@@ -7181,7 +7452,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B389" t="s">
         <v>61</v>
@@ -7198,7 +7469,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B390" t="s">
         <v>61</v>
@@ -7215,7 +7486,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B391" t="s">
         <v>61</v>
@@ -7232,7 +7503,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B392" t="s">
         <v>61</v>
@@ -7249,7 +7520,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B393" t="s">
         <v>61</v>
@@ -7265,9 +7536,14 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A394" s="2"/>
+      <c r="A394" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B394" t="s">
+        <v>61</v>
+      </c>
       <c r="C394" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D394" s="4">
         <f>SUM(D374:D392)-D393</f>
@@ -7280,7 +7556,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B395" t="s">
         <v>63</v>
@@ -7297,7 +7573,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B396" t="s">
         <v>63</v>
@@ -7314,7 +7590,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B397" t="s">
         <v>63</v>
@@ -7331,7 +7607,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B398" t="s">
         <v>63</v>
@@ -7348,7 +7624,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B399" t="s">
         <v>63</v>
@@ -7365,7 +7641,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A400" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B400" t="s">
         <v>63</v>
@@ -7381,9 +7657,14 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A401" s="2"/>
+      <c r="A401" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B401" t="s">
+        <v>63</v>
+      </c>
       <c r="C401" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D401" s="4">
         <f>SUM(D395:D399)-D400</f>
@@ -7396,7 +7677,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B402" t="s">
         <v>64</v>
@@ -7413,7 +7694,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B403" t="s">
         <v>64</v>
@@ -7429,19 +7710,28 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A404" s="2"/>
+      <c r="A404" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B404" t="s">
+        <v>64</v>
+      </c>
       <c r="C404" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D404" s="4">
+        <v>0</v>
+      </c>
+      <c r="E404" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>40</v>
@@ -7455,10 +7745,10 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C406" t="s">
         <v>35</v>
@@ -7472,10 +7762,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C407" t="s">
         <v>59</v>
@@ -7488,10 +7778,14 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
+      <c r="A408" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C408" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D408" s="4">
         <f>SUM(D405:D406)-D407</f>
@@ -7504,13 +7798,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B409" t="s">
-        <v>66</v>
-      </c>
-      <c r="C409" t="s">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D409" s="1">
         <v>14695</v>
@@ -7521,10 +7815,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B410" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C410" t="s">
         <v>59</v>
@@ -7537,13 +7831,24 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A411" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C411" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D411" s="4"/>
-      <c r="E411" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="D411" s="4">
+        <v>0</v>
+      </c>
+      <c r="E411" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E411" xr:uid="{C22021BF-44FE-B541-A2D9-20F81AFE97C3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>